--- a/biology/Botanique/Liste_des_plantes_du_Canada_D/Liste_des_plantes_du_Canada_D.xlsx
+++ b/biology/Botanique/Liste_des_plantes_du_Canada_D/Liste_des_plantes_du_Canada_D.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Voici la liste des plantes du Canada. Les plantes indigènes au Canada sont indicées avec un  N, et les plantes introduites, le sont avec un  X.
 A | B | C | D | E | F | G | H | I | J | K | L | M | N | O | P | Q | R | S | T | U | V | W | XYZ
@@ -512,7 +524,9 @@
           <t>Da</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dalea
 Dalea purpurea
@@ -548,7 +562,9 @@
           <t>De</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Decodon — décodons
 Decodon verticillatus — décodon verticillé
@@ -600,7 +616,9 @@
           <t>Di</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Diarrhena
 Diarrhena obovata
@@ -650,7 +668,9 @@
           <t>Do</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Doellingeria — asters
 Doellingeria umbellata var. pubens — aster pubescent
@@ -682,7 +702,9 @@
           <t>Dr</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Draba — draves
 Draba alpina — drave alpine
@@ -744,7 +766,9 @@
           <t>Du</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Dulichium — duliches
 Dulichium arundinaceum — duliche roseau
@@ -777,7 +801,9 @@
           <t>Dy</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Dyssodia
 Dyssodia papposa</t>
